--- a/public/import2.xlsx
+++ b/public/import2.xlsx
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="105">
   <si>
     <t>STT</t>
   </si>
@@ -744,10 +744,10 @@
   <dimension ref="A1:S51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="I50" sqref="I50"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -832,6 +832,9 @@
       <c r="G2" t="s">
         <v>104</v>
       </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" t="s">
         <v>22</v>
       </c>
@@ -858,6 +861,9 @@
       <c r="G3" t="s">
         <v>104</v>
       </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
       <c r="I3" t="s">
         <v>22</v>
       </c>
@@ -884,6 +890,9 @@
       <c r="G4" t="s">
         <v>104</v>
       </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
@@ -910,6 +919,9 @@
       <c r="G5" t="s">
         <v>104</v>
       </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
       <c r="I5" t="s">
         <v>22</v>
       </c>
@@ -936,6 +948,9 @@
       <c r="G6" t="s">
         <v>104</v>
       </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
@@ -962,6 +977,9 @@
       <c r="G7" t="s">
         <v>104</v>
       </c>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
       <c r="I7" t="s">
         <v>22</v>
       </c>
@@ -988,6 +1006,9 @@
       <c r="G8" t="s">
         <v>104</v>
       </c>
+      <c r="H8" t="s">
+        <v>22</v>
+      </c>
       <c r="I8" t="s">
         <v>22</v>
       </c>
@@ -1014,6 +1035,9 @@
       <c r="G9" t="s">
         <v>104</v>
       </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
       <c r="I9" t="s">
         <v>22</v>
       </c>
@@ -1040,6 +1064,9 @@
       <c r="G10" t="s">
         <v>104</v>
       </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
       <c r="I10" t="s">
         <v>22</v>
       </c>
@@ -1066,6 +1093,9 @@
       <c r="G11" t="s">
         <v>104</v>
       </c>
+      <c r="H11" t="s">
+        <v>22</v>
+      </c>
       <c r="I11" t="s">
         <v>22</v>
       </c>
@@ -1092,6 +1122,9 @@
       <c r="G12" t="s">
         <v>104</v>
       </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
       <c r="I12" t="s">
         <v>22</v>
       </c>
@@ -1118,6 +1151,9 @@
       <c r="G13" t="s">
         <v>104</v>
       </c>
+      <c r="H13" t="s">
+        <v>22</v>
+      </c>
       <c r="I13" t="s">
         <v>22</v>
       </c>
@@ -1144,6 +1180,9 @@
       <c r="G14" t="s">
         <v>104</v>
       </c>
+      <c r="H14" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" t="s">
         <v>22</v>
       </c>
@@ -1170,6 +1209,9 @@
       <c r="G15" t="s">
         <v>104</v>
       </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
       <c r="I15" t="s">
         <v>22</v>
       </c>
@@ -1196,6 +1238,9 @@
       <c r="G16" t="s">
         <v>104</v>
       </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
       <c r="I16" t="s">
         <v>22</v>
       </c>
@@ -1221,6 +1266,9 @@
       </c>
       <c r="G17" t="s">
         <v>104</v>
+      </c>
+      <c r="H17" t="s">
+        <v>22</v>
       </c>
       <c r="I17" t="s">
         <v>22</v>
@@ -1248,6 +1296,9 @@
       <c r="G18" t="s">
         <v>104</v>
       </c>
+      <c r="H18" t="s">
+        <v>22</v>
+      </c>
       <c r="I18" t="s">
         <v>22</v>
       </c>
@@ -1274,6 +1325,9 @@
       <c r="G19" t="s">
         <v>104</v>
       </c>
+      <c r="H19" t="s">
+        <v>22</v>
+      </c>
       <c r="I19" t="s">
         <v>22</v>
       </c>
@@ -1300,6 +1354,9 @@
       <c r="G20" t="s">
         <v>104</v>
       </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
       <c r="I20" t="s">
         <v>22</v>
       </c>
@@ -1326,6 +1383,9 @@
       <c r="G21" t="s">
         <v>104</v>
       </c>
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
       <c r="I21" t="s">
         <v>22</v>
       </c>
@@ -1352,6 +1412,9 @@
       <c r="G22" t="s">
         <v>104</v>
       </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
       <c r="I22" t="s">
         <v>22</v>
       </c>
@@ -1378,6 +1441,9 @@
       <c r="G23" t="s">
         <v>104</v>
       </c>
+      <c r="H23" t="s">
+        <v>22</v>
+      </c>
       <c r="I23" t="s">
         <v>22</v>
       </c>
@@ -1403,6 +1469,9 @@
       </c>
       <c r="G24" t="s">
         <v>104</v>
+      </c>
+      <c r="H24" t="s">
+        <v>22</v>
       </c>
       <c r="I24" t="s">
         <v>22</v>
@@ -1430,6 +1499,9 @@
       <c r="G25" t="s">
         <v>104</v>
       </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
       <c r="I25" t="s">
         <v>22</v>
       </c>
@@ -1456,6 +1528,9 @@
       <c r="G26" t="s">
         <v>104</v>
       </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
       <c r="I26" t="s">
         <v>22</v>
       </c>
@@ -1482,6 +1557,9 @@
       <c r="G27" t="s">
         <v>104</v>
       </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
       <c r="I27" t="s">
         <v>22</v>
       </c>
@@ -1508,6 +1586,9 @@
       <c r="G28" t="s">
         <v>104</v>
       </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
       <c r="I28" t="s">
         <v>22</v>
       </c>
@@ -1534,6 +1615,9 @@
       <c r="G29" t="s">
         <v>104</v>
       </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
       <c r="I29" t="s">
         <v>22</v>
       </c>
@@ -1560,6 +1644,9 @@
       <c r="G30" t="s">
         <v>104</v>
       </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
       <c r="I30" t="s">
         <v>22</v>
       </c>
@@ -1586,6 +1673,9 @@
       <c r="G31" t="s">
         <v>104</v>
       </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
       <c r="I31" t="s">
         <v>22</v>
       </c>
@@ -1612,6 +1702,9 @@
       <c r="G32" t="s">
         <v>104</v>
       </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
       <c r="I32" t="s">
         <v>22</v>
       </c>
@@ -1638,6 +1731,9 @@
       <c r="G33" t="s">
         <v>104</v>
       </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
       <c r="I33" t="s">
         <v>22</v>
       </c>
@@ -1664,6 +1760,9 @@
       <c r="G34" t="s">
         <v>104</v>
       </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
       <c r="I34" t="s">
         <v>22</v>
       </c>
@@ -1690,6 +1789,9 @@
       <c r="G35" t="s">
         <v>104</v>
       </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
       <c r="I35" t="s">
         <v>22</v>
       </c>
@@ -1716,6 +1818,9 @@
       <c r="G36" t="s">
         <v>104</v>
       </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
       <c r="I36" t="s">
         <v>22</v>
       </c>
@@ -1742,6 +1847,9 @@
       <c r="G37" t="s">
         <v>104</v>
       </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
       <c r="I37" t="s">
         <v>22</v>
       </c>
@@ -1768,6 +1876,9 @@
       <c r="G38" t="s">
         <v>104</v>
       </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
       <c r="I38" t="s">
         <v>22</v>
       </c>
@@ -1794,6 +1905,9 @@
       <c r="G39" t="s">
         <v>104</v>
       </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
       <c r="I39" t="s">
         <v>22</v>
       </c>
@@ -1820,6 +1934,9 @@
       <c r="G40" t="s">
         <v>104</v>
       </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
       <c r="I40" t="s">
         <v>22</v>
       </c>
@@ -1846,6 +1963,9 @@
       <c r="G41" t="s">
         <v>104</v>
       </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
       <c r="I41" t="s">
         <v>22</v>
       </c>
@@ -1872,6 +1992,9 @@
       <c r="G42" t="s">
         <v>104</v>
       </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
       <c r="I42" t="s">
         <v>22</v>
       </c>
@@ -1898,6 +2021,9 @@
       <c r="G43" t="s">
         <v>104</v>
       </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
       <c r="I43" t="s">
         <v>22</v>
       </c>
@@ -1924,6 +2050,9 @@
       <c r="G44" t="s">
         <v>104</v>
       </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
       <c r="I44" t="s">
         <v>22</v>
       </c>
@@ -1950,6 +2079,9 @@
       <c r="G45" t="s">
         <v>104</v>
       </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
       <c r="I45" t="s">
         <v>22</v>
       </c>
@@ -1976,6 +2108,9 @@
       <c r="G46" t="s">
         <v>104</v>
       </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
       <c r="I46" t="s">
         <v>22</v>
       </c>
@@ -2002,6 +2137,9 @@
       <c r="G47" t="s">
         <v>104</v>
       </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
       <c r="I47" t="s">
         <v>22</v>
       </c>
@@ -2028,6 +2166,9 @@
       <c r="G48" t="s">
         <v>104</v>
       </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
       <c r="I48" t="s">
         <v>22</v>
       </c>
@@ -2054,6 +2195,9 @@
       <c r="G49" t="s">
         <v>104</v>
       </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
       <c r="I49" t="s">
         <v>22</v>
       </c>
@@ -2080,6 +2224,9 @@
       <c r="G50" t="s">
         <v>104</v>
       </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
       <c r="I50" t="s">
         <v>22</v>
       </c>
@@ -2105,6 +2252,9 @@
       </c>
       <c r="G51" t="s">
         <v>104</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
       </c>
       <c r="I51" t="s">
         <v>22</v>
